--- a/dados_final/imoveis_2200k.xlsx
+++ b/dados_final/imoveis_2200k.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>distancia_metro_km</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>metragem</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vagas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>2</v>
       </c>
+      <c r="E2" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>1.637</v>
       </c>
+      <c r="E3" t="n">
+        <v>59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>0.727</v>
       </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>0.1</v>
       </c>
+      <c r="E5" t="n">
+        <v>86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>0.379</v>
       </c>
+      <c r="E6" t="n">
+        <v>71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>1.431</v>
       </c>
+      <c r="E7" t="n">
+        <v>71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>0.532</v>
       </c>
+      <c r="E8" t="n">
+        <v>68</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>1.195</v>
       </c>
+      <c r="E9" t="n">
+        <v>64</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
+      <c r="E10" t="n">
+        <v>68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>1.222</v>
       </c>
+      <c r="E11" t="n">
+        <v>71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>0.226</v>
       </c>
+      <c r="E12" t="n">
+        <v>61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>0.978</v>
       </c>
+      <c r="E13" t="n">
+        <v>61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>0.625</v>
       </c>
+      <c r="E14" t="n">
+        <v>71</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>0.338</v>
       </c>
+      <c r="E15" t="n">
+        <v>71</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>0.194</v>
       </c>
+      <c r="E16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
+      <c r="E17" t="n">
+        <v>71</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>0.1</v>
       </c>
+      <c r="E18" t="n">
+        <v>68</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>1.666</v>
       </c>
+      <c r="E19" t="n">
+        <v>71</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
+      <c r="E20" t="n">
+        <v>64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>0.466</v>
       </c>
+      <c r="E21" t="n">
+        <v>69</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>2</v>
       </c>
+      <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>1.073</v>
       </c>
+      <c r="E23" t="n">
+        <v>61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>0.99</v>
       </c>
+      <c r="E24" t="n">
+        <v>68</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>1.056</v>
       </c>
+      <c r="E25" t="n">
+        <v>122</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>1.698</v>
       </c>
+      <c r="E26" t="n">
+        <v>64</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>0.951</v>
       </c>
+      <c r="E27" t="n">
+        <v>114</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>0.1</v>
       </c>
+      <c r="E28" t="n">
+        <v>122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>1.311</v>
       </c>
+      <c r="E29" t="n">
+        <v>54</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>1.647</v>
       </c>
+      <c r="E30" t="n">
+        <v>64</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>2</v>
       </c>
+      <c r="E31" t="n">
+        <v>68</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E32" t="n">
+        <v>66</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>1.838</v>
       </c>
+      <c r="E33" t="n">
+        <v>64</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1184,12 @@
       <c r="D34" t="n">
         <v>1.952</v>
       </c>
+      <c r="E34" t="n">
+        <v>110</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>1.983</v>
       </c>
+      <c r="E35" t="n">
+        <v>68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>1.919</v>
       </c>
+      <c r="E36" t="n">
+        <v>61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E37" t="n">
+        <v>66</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>0.961</v>
       </c>
+      <c r="E38" t="n">
+        <v>61</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>0.427</v>
       </c>
+      <c r="E39" t="n">
+        <v>71</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>1.396</v>
       </c>
+      <c r="E40" t="n">
+        <v>71</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1338,12 @@
       <c r="D41" t="n">
         <v>0.1</v>
       </c>
+      <c r="E41" t="n">
+        <v>122</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1360,12 @@
       <c r="D42" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E42" t="n">
+        <v>58</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1382,12 @@
       <c r="D43" t="n">
         <v>0.918</v>
       </c>
+      <c r="E43" t="n">
+        <v>71</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1404,12 @@
       <c r="D44" t="n">
         <v>1.775</v>
       </c>
+      <c r="E44" t="n">
+        <v>71</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1426,12 @@
       <c r="D45" t="n">
         <v>1.862</v>
       </c>
+      <c r="E45" t="n">
+        <v>68</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1448,12 @@
       <c r="D46" t="n">
         <v>0.547</v>
       </c>
+      <c r="E46" t="n">
+        <v>71</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +1470,12 @@
       <c r="D47" t="n">
         <v>2</v>
       </c>
+      <c r="E47" t="n">
+        <v>82</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +1492,12 @@
       <c r="D48" t="n">
         <v>0.476</v>
       </c>
+      <c r="E48" t="n">
+        <v>71</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +1514,12 @@
       <c r="D49" t="n">
         <v>1.851</v>
       </c>
+      <c r="E49" t="n">
+        <v>57</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +1536,12 @@
       <c r="D50" t="n">
         <v>1.335</v>
       </c>
+      <c r="E50" t="n">
+        <v>68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +1558,12 @@
       <c r="D51" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E51" t="n">
+        <v>66</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +1580,12 @@
       <c r="D52" t="n">
         <v>1.305</v>
       </c>
+      <c r="E52" t="n">
+        <v>71</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +1602,12 @@
       <c r="D53" t="n">
         <v>1.508</v>
       </c>
+      <c r="E53" t="n">
+        <v>122</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +1624,12 @@
       <c r="D54" t="n">
         <v>0.327</v>
       </c>
+      <c r="E54" t="n">
+        <v>61</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +1646,12 @@
       <c r="D55" t="n">
         <v>2</v>
       </c>
+      <c r="E55" t="n">
+        <v>68</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +1668,12 @@
       <c r="D56" t="n">
         <v>1.83</v>
       </c>
+      <c r="E56" t="n">
+        <v>68</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +1690,12 @@
       <c r="D57" t="n">
         <v>1.273</v>
       </c>
+      <c r="E57" t="n">
+        <v>59</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +1712,12 @@
       <c r="D58" t="n">
         <v>0.726</v>
       </c>
+      <c r="E58" t="n">
+        <v>71</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +1734,12 @@
       <c r="D59" t="n">
         <v>1.405</v>
       </c>
+      <c r="E59" t="n">
+        <v>68</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +1756,12 @@
       <c r="D60" t="n">
         <v>0.1</v>
       </c>
+      <c r="E60" t="n">
+        <v>64</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +1778,12 @@
       <c r="D61" t="n">
         <v>1.433</v>
       </c>
+      <c r="E61" t="n">
+        <v>189</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +1800,12 @@
       <c r="D62" t="n">
         <v>2</v>
       </c>
+      <c r="E62" t="n">
+        <v>68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +1822,12 @@
       <c r="D63" t="n">
         <v>0.1</v>
       </c>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +1844,12 @@
       <c r="D64" t="n">
         <v>1.652</v>
       </c>
+      <c r="E64" t="n">
+        <v>71</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +1866,12 @@
       <c r="D65" t="n">
         <v>0.153</v>
       </c>
+      <c r="E65" t="n">
+        <v>61</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +1888,12 @@
       <c r="D66" t="n">
         <v>1.869</v>
       </c>
+      <c r="E66" t="n">
+        <v>68</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +1910,12 @@
       <c r="D67" t="n">
         <v>1.442</v>
       </c>
+      <c r="E67" t="n">
+        <v>68</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +1932,12 @@
       <c r="D68" t="n">
         <v>1.994</v>
       </c>
+      <c r="E68" t="n">
+        <v>61</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +1954,12 @@
       <c r="D69" t="n">
         <v>1.833</v>
       </c>
+      <c r="E69" t="n">
+        <v>59</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1558,6 +1976,12 @@
       <c r="D70" t="n">
         <v>0.383</v>
       </c>
+      <c r="E70" t="n">
+        <v>71</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1574,6 +1998,12 @@
       <c r="D71" t="n">
         <v>0.1</v>
       </c>
+      <c r="E71" t="n">
+        <v>61</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1590,6 +2020,12 @@
       <c r="D72" t="n">
         <v>1.611</v>
       </c>
+      <c r="E72" t="n">
+        <v>114</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1606,6 +2042,12 @@
       <c r="D73" t="n">
         <v>1.371</v>
       </c>
+      <c r="E73" t="n">
+        <v>114</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1622,6 +2064,12 @@
       <c r="D74" t="n">
         <v>2</v>
       </c>
+      <c r="E74" t="n">
+        <v>68</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1638,6 +2086,12 @@
       <c r="D75" t="n">
         <v>0.701</v>
       </c>
+      <c r="E75" t="n">
+        <v>71</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1654,6 +2108,12 @@
       <c r="D76" t="n">
         <v>1.117</v>
       </c>
+      <c r="E76" t="n">
+        <v>53</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1670,6 +2130,12 @@
       <c r="D77" t="n">
         <v>0.795</v>
       </c>
+      <c r="E77" t="n">
+        <v>71</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1686,6 +2152,12 @@
       <c r="D78" t="n">
         <v>0.771</v>
       </c>
+      <c r="E78" t="n">
+        <v>71</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1702,6 +2174,12 @@
       <c r="D79" t="n">
         <v>0.188</v>
       </c>
+      <c r="E79" t="n">
+        <v>63</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1718,6 +2196,12 @@
       <c r="D80" t="n">
         <v>0.392</v>
       </c>
+      <c r="E80" t="n">
+        <v>71</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1734,6 +2218,12 @@
       <c r="D81" t="n">
         <v>1.375</v>
       </c>
+      <c r="E81" t="n">
+        <v>59</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1750,6 +2240,12 @@
       <c r="D82" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E82" t="n">
+        <v>77</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1766,6 +2262,12 @@
       <c r="D83" t="n">
         <v>0.27</v>
       </c>
+      <c r="E83" t="n">
+        <v>90</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1782,6 +2284,12 @@
       <c r="D84" t="n">
         <v>1.957</v>
       </c>
+      <c r="E84" t="n">
+        <v>68</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1798,6 +2306,12 @@
       <c r="D85" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E85" t="n">
+        <v>66</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1814,6 +2328,12 @@
       <c r="D86" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E86" t="n">
+        <v>112</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1830,6 +2350,12 @@
       <c r="D87" t="n">
         <v>1.147</v>
       </c>
+      <c r="E87" t="n">
+        <v>61</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1846,6 +2372,12 @@
       <c r="D88" t="n">
         <v>0.6830000000000001</v>
       </c>
+      <c r="E88" t="n">
+        <v>59</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1862,6 +2394,12 @@
       <c r="D89" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E89" t="n">
+        <v>66</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1878,6 +2416,12 @@
       <c r="D90" t="n">
         <v>1.609</v>
       </c>
+      <c r="E90" t="n">
+        <v>64</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1894,6 +2438,12 @@
       <c r="D91" t="n">
         <v>1.366</v>
       </c>
+      <c r="E91" t="n">
+        <v>70</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1910,6 +2460,12 @@
       <c r="D92" t="n">
         <v>2</v>
       </c>
+      <c r="E92" t="n">
+        <v>64</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1926,6 +2482,12 @@
       <c r="D93" t="n">
         <v>1.944</v>
       </c>
+      <c r="E93" t="n">
+        <v>61</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1942,6 +2504,12 @@
       <c r="D94" t="n">
         <v>0.994</v>
       </c>
+      <c r="E94" t="n">
+        <v>61</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1958,6 +2526,12 @@
       <c r="D95" t="n">
         <v>1.918</v>
       </c>
+      <c r="E95" t="n">
+        <v>69</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1974,6 +2548,12 @@
       <c r="D96" t="n">
         <v>1.913</v>
       </c>
+      <c r="E96" t="n">
+        <v>75</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1990,6 +2570,12 @@
       <c r="D97" t="n">
         <v>1.329</v>
       </c>
+      <c r="E97" t="n">
+        <v>63</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2006,6 +2592,12 @@
       <c r="D98" t="n">
         <v>0.219</v>
       </c>
+      <c r="E98" t="n">
+        <v>64</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2022,6 +2614,12 @@
       <c r="D99" t="n">
         <v>0.575</v>
       </c>
+      <c r="E99" t="n">
+        <v>90</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2038,6 +2636,12 @@
       <c r="D100" t="n">
         <v>0.65</v>
       </c>
+      <c r="E100" t="n">
+        <v>59</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2054,6 +2658,12 @@
       <c r="D101" t="n">
         <v>2</v>
       </c>
+      <c r="E101" t="n">
+        <v>68</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2070,6 +2680,12 @@
       <c r="D102" t="n">
         <v>0.55</v>
       </c>
+      <c r="E102" t="n">
+        <v>68</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2086,6 +2702,12 @@
       <c r="D103" t="n">
         <v>2</v>
       </c>
+      <c r="E103" t="n">
+        <v>64</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2102,6 +2724,12 @@
       <c r="D104" t="n">
         <v>0.842</v>
       </c>
+      <c r="E104" t="n">
+        <v>58</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2118,6 +2746,12 @@
       <c r="D105" t="n">
         <v>1.672</v>
       </c>
+      <c r="E105" t="n">
+        <v>71</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2134,6 +2768,12 @@
       <c r="D106" t="n">
         <v>2</v>
       </c>
+      <c r="E106" t="n">
+        <v>122</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2150,6 +2790,12 @@
       <c r="D107" t="n">
         <v>0.1</v>
       </c>
+      <c r="E107" t="n">
+        <v>61</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2166,6 +2812,12 @@
       <c r="D108" t="n">
         <v>1.153</v>
       </c>
+      <c r="E108" t="n">
+        <v>71</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2182,6 +2834,12 @@
       <c r="D109" t="n">
         <v>1.034</v>
       </c>
+      <c r="E109" t="n">
+        <v>122</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2198,6 +2856,12 @@
       <c r="D110" t="n">
         <v>2</v>
       </c>
+      <c r="E110" t="n">
+        <v>68</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2214,6 +2878,12 @@
       <c r="D111" t="n">
         <v>1.29</v>
       </c>
+      <c r="E111" t="n">
+        <v>68</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2230,6 +2900,12 @@
       <c r="D112" t="n">
         <v>2</v>
       </c>
+      <c r="E112" t="n">
+        <v>71</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2246,6 +2922,12 @@
       <c r="D113" t="n">
         <v>0.1</v>
       </c>
+      <c r="E113" t="n">
+        <v>71</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2262,6 +2944,12 @@
       <c r="D114" t="n">
         <v>0.8</v>
       </c>
+      <c r="E114" t="n">
+        <v>71</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2278,6 +2966,12 @@
       <c r="D115" t="n">
         <v>1.555</v>
       </c>
+      <c r="E115" t="n">
+        <v>59</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2294,6 +2988,12 @@
       <c r="D116" t="n">
         <v>1.641</v>
       </c>
+      <c r="E116" t="n">
+        <v>59</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2310,6 +3010,12 @@
       <c r="D117" t="n">
         <v>1.279</v>
       </c>
+      <c r="E117" t="n">
+        <v>73</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2326,6 +3032,12 @@
       <c r="D118" t="n">
         <v>1.103</v>
       </c>
+      <c r="E118" t="n">
+        <v>61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2342,6 +3054,12 @@
       <c r="D119" t="n">
         <v>1.458</v>
       </c>
+      <c r="E119" t="n">
+        <v>68</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2357,6 +3075,12 @@
       </c>
       <c r="D120" t="n">
         <v>1.793</v>
+      </c>
+      <c r="E120" t="n">
+        <v>61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
